--- a/data/pca/factorExposure/factorExposure_2015-10-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01160745960941553</v>
+        <v>-0.0144151353569672</v>
       </c>
       <c r="C2">
-        <v>0.02985404626748119</v>
+        <v>0.0351263279196737</v>
       </c>
       <c r="D2">
-        <v>-0.1054992833633649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1286702301187094</v>
+      </c>
+      <c r="E2">
+        <v>0.05553328552971584</v>
+      </c>
+      <c r="F2">
+        <v>-0.01555971701001441</v>
+      </c>
+      <c r="G2">
+        <v>0.08636888658289944</v>
+      </c>
+      <c r="H2">
+        <v>0.08378859765620435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0162258800147769</v>
+        <v>-0.01108650340378124</v>
       </c>
       <c r="C3">
-        <v>0.05497922433814215</v>
+        <v>0.04324883449215745</v>
       </c>
       <c r="D3">
-        <v>-0.09022027807606288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0567149363704775</v>
+      </c>
+      <c r="E3">
+        <v>0.04346412783790204</v>
+      </c>
+      <c r="F3">
+        <v>-0.0697455422851164</v>
+      </c>
+      <c r="G3">
+        <v>0.1348671374029763</v>
+      </c>
+      <c r="H3">
+        <v>0.02278906127526614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0471580009665972</v>
+        <v>-0.05106840766242674</v>
       </c>
       <c r="C4">
-        <v>0.05632693019298853</v>
+        <v>0.07020737876145648</v>
       </c>
       <c r="D4">
-        <v>-0.1259565051353599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1449235755882155</v>
+      </c>
+      <c r="E4">
+        <v>0.0526533065405025</v>
+      </c>
+      <c r="F4">
+        <v>-0.02902198720321192</v>
+      </c>
+      <c r="G4">
+        <v>-0.0439755454792328</v>
+      </c>
+      <c r="H4">
+        <v>0.01572460233990979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03747223040137963</v>
+        <v>-0.03826189785706539</v>
       </c>
       <c r="C6">
-        <v>0.02037018942018579</v>
+        <v>0.0286453866432272</v>
       </c>
       <c r="D6">
-        <v>-0.145528369931273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1417885252354322</v>
+      </c>
+      <c r="E6">
+        <v>0.02153652441609168</v>
+      </c>
+      <c r="F6">
+        <v>-0.0181158585124966</v>
+      </c>
+      <c r="G6">
+        <v>0.006003693499464747</v>
+      </c>
+      <c r="H6">
+        <v>0.05217045190560173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01549074786516717</v>
+        <v>-0.01237455643848207</v>
       </c>
       <c r="C7">
-        <v>0.02754799918225131</v>
+        <v>0.03346796436863787</v>
       </c>
       <c r="D7">
-        <v>-0.1049077394886055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0974669424526548</v>
+      </c>
+      <c r="E7">
+        <v>0.01617057356994318</v>
+      </c>
+      <c r="F7">
+        <v>-0.02056110698451105</v>
+      </c>
+      <c r="G7">
+        <v>0.03230342059579795</v>
+      </c>
+      <c r="H7">
+        <v>0.08067120466528287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.00969210731250579</v>
+        <v>-0.006997604554967298</v>
       </c>
       <c r="C8">
-        <v>0.02983660187783259</v>
+        <v>0.03939089245813052</v>
       </c>
       <c r="D8">
-        <v>-0.0707430280923409</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08692136686114553</v>
+      </c>
+      <c r="E8">
+        <v>0.038074200140517</v>
+      </c>
+      <c r="F8">
+        <v>-0.06854969348556404</v>
+      </c>
+      <c r="G8">
+        <v>0.05268235061966967</v>
+      </c>
+      <c r="H8">
+        <v>0.05244015839145179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03934862951910595</v>
+        <v>-0.04056101492415796</v>
       </c>
       <c r="C9">
-        <v>0.0509769311097758</v>
+        <v>0.06400642766354328</v>
       </c>
       <c r="D9">
-        <v>-0.1097484171908614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1210249728603754</v>
+      </c>
+      <c r="E9">
+        <v>0.03746019828745829</v>
+      </c>
+      <c r="F9">
+        <v>-0.01266095413985425</v>
+      </c>
+      <c r="G9">
+        <v>-0.0240733843822165</v>
+      </c>
+      <c r="H9">
+        <v>0.01624689495519079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1142539612329904</v>
+        <v>-0.1464933130204119</v>
       </c>
       <c r="C10">
-        <v>-0.1848857050402296</v>
+        <v>-0.1877999386790418</v>
       </c>
       <c r="D10">
-        <v>0.001230715695120351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008574338066691486</v>
+      </c>
+      <c r="E10">
+        <v>0.0422400572885608</v>
+      </c>
+      <c r="F10">
+        <v>-0.04837230621467518</v>
+      </c>
+      <c r="G10">
+        <v>-0.01325059775487273</v>
+      </c>
+      <c r="H10">
+        <v>-0.03297217186726108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02991488350326954</v>
+        <v>-0.02837350675320494</v>
       </c>
       <c r="C11">
-        <v>0.04057892334910426</v>
+        <v>0.0452139494242743</v>
       </c>
       <c r="D11">
-        <v>-0.05916139385585624</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05814137433043695</v>
+      </c>
+      <c r="E11">
+        <v>-0.01002278063983864</v>
+      </c>
+      <c r="F11">
+        <v>0.007985727493105398</v>
+      </c>
+      <c r="G11">
+        <v>0.008419791509982975</v>
+      </c>
+      <c r="H11">
+        <v>0.03418721884716482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03618137972322704</v>
+        <v>-0.0333084756473641</v>
       </c>
       <c r="C12">
-        <v>0.04276152632576804</v>
+        <v>0.04781287055164288</v>
       </c>
       <c r="D12">
-        <v>-0.06010853009955013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05654603002028737</v>
+      </c>
+      <c r="E12">
+        <v>-0.0007445871440122688</v>
+      </c>
+      <c r="F12">
+        <v>0.01255198664956735</v>
+      </c>
+      <c r="G12">
+        <v>0.01755302280269722</v>
+      </c>
+      <c r="H12">
+        <v>0.03358789051343764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0109195068019939</v>
+        <v>-0.01661498383915263</v>
       </c>
       <c r="C13">
-        <v>0.0349639039549286</v>
+        <v>0.03999089750577624</v>
       </c>
       <c r="D13">
-        <v>-0.1389747177622043</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1560324604317348</v>
+      </c>
+      <c r="E13">
+        <v>0.03112114392339911</v>
+      </c>
+      <c r="F13">
+        <v>-0.05005040163634445</v>
+      </c>
+      <c r="G13">
+        <v>0.0390975999506858</v>
+      </c>
+      <c r="H13">
+        <v>0.07390120507016007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.002722842825063001</v>
+        <v>-0.006570996932949261</v>
       </c>
       <c r="C14">
-        <v>0.0217763280365384</v>
+        <v>0.02364759497780111</v>
       </c>
       <c r="D14">
-        <v>-0.08692595321850498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.09331163590928607</v>
+      </c>
+      <c r="E14">
+        <v>0.03083935893164618</v>
+      </c>
+      <c r="F14">
+        <v>-0.006337102321120127</v>
+      </c>
+      <c r="G14">
+        <v>0.0386168425294953</v>
+      </c>
+      <c r="H14">
+        <v>0.09977300954030964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002749944127035062</v>
+        <v>-0.0009116347539168095</v>
       </c>
       <c r="C15">
-        <v>0.003166877651210492</v>
+        <v>0.01226047472139778</v>
       </c>
       <c r="D15">
-        <v>-0.003371351191624759</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03526029008585445</v>
+      </c>
+      <c r="E15">
+        <v>0.009825682797514076</v>
+      </c>
+      <c r="F15">
+        <v>0.000331977480731921</v>
+      </c>
+      <c r="G15">
+        <v>0.01103871116165718</v>
+      </c>
+      <c r="H15">
+        <v>0.01855532821241045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02920579547503905</v>
+        <v>-0.02874805621586937</v>
       </c>
       <c r="C16">
-        <v>0.04471339789901988</v>
+        <v>0.0460663083153636</v>
       </c>
       <c r="D16">
-        <v>-0.06412994297566182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06189707510276827</v>
+      </c>
+      <c r="E16">
+        <v>0.006699407323349726</v>
+      </c>
+      <c r="F16">
+        <v>0.00444862595092539</v>
+      </c>
+      <c r="G16">
+        <v>0.01606799271730615</v>
+      </c>
+      <c r="H16">
+        <v>0.04961787597354864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.00690519081358708</v>
+        <v>-0.00526946346784939</v>
       </c>
       <c r="C19">
-        <v>0.03240875110602945</v>
+        <v>0.02656743736053578</v>
       </c>
       <c r="D19">
-        <v>-0.1514211801594267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1159417092502968</v>
+      </c>
+      <c r="E19">
+        <v>0.05911265262709473</v>
+      </c>
+      <c r="F19">
+        <v>0.006041707859295348</v>
+      </c>
+      <c r="G19">
+        <v>0.04647882560635667</v>
+      </c>
+      <c r="H19">
+        <v>0.0375458608024012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01208815530700264</v>
+        <v>-0.01500801846755495</v>
       </c>
       <c r="C20">
-        <v>0.03141410243675462</v>
+        <v>0.03466144364702466</v>
       </c>
       <c r="D20">
-        <v>-0.08772420556915311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1025540289764166</v>
+      </c>
+      <c r="E20">
+        <v>0.04874904864643023</v>
+      </c>
+      <c r="F20">
+        <v>-0.00317316168589525</v>
+      </c>
+      <c r="G20">
+        <v>0.01229898002457471</v>
+      </c>
+      <c r="H20">
+        <v>0.05808313249902137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.002973726277054542</v>
+        <v>-0.008112706597624133</v>
       </c>
       <c r="C21">
-        <v>0.03023992292748858</v>
+        <v>0.03813015678457474</v>
       </c>
       <c r="D21">
-        <v>-0.1303220164179301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1406097795198822</v>
+      </c>
+      <c r="E21">
+        <v>0.08408614348768408</v>
+      </c>
+      <c r="F21">
+        <v>-0.02326548105050527</v>
+      </c>
+      <c r="G21">
+        <v>0.02151369672468726</v>
+      </c>
+      <c r="H21">
+        <v>0.08007164677203832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.003721789345276043</v>
+        <v>-0.005492917333450646</v>
       </c>
       <c r="C22">
-        <v>0.03176705559231824</v>
+        <v>0.04367488634749257</v>
       </c>
       <c r="D22">
-        <v>-0.1016002108324659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1565199454190828</v>
+      </c>
+      <c r="E22">
+        <v>0.02052728994414026</v>
+      </c>
+      <c r="F22">
+        <v>-0.09934132497973364</v>
+      </c>
+      <c r="G22">
+        <v>0.07458133557541621</v>
+      </c>
+      <c r="H22">
+        <v>0.0005765161042913936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.003837593957377141</v>
+        <v>-0.005620018322524351</v>
       </c>
       <c r="C23">
-        <v>0.03206834357335864</v>
+        <v>0.0441489196675553</v>
       </c>
       <c r="D23">
-        <v>-0.1010397966238847</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.155820045438014</v>
+      </c>
+      <c r="E23">
+        <v>0.02097756764217664</v>
+      </c>
+      <c r="F23">
+        <v>-0.09942190134813543</v>
+      </c>
+      <c r="G23">
+        <v>0.07369926909982677</v>
+      </c>
+      <c r="H23">
+        <v>0.0003165075124818974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03261997570505962</v>
+        <v>-0.03014985050994968</v>
       </c>
       <c r="C24">
-        <v>0.05331033291996905</v>
+        <v>0.05831654478052554</v>
       </c>
       <c r="D24">
-        <v>-0.06526499634535658</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06530675045237277</v>
+      </c>
+      <c r="E24">
+        <v>0.009006620052546514</v>
+      </c>
+      <c r="F24">
+        <v>0.008155128910766597</v>
+      </c>
+      <c r="G24">
+        <v>0.008375608643694521</v>
+      </c>
+      <c r="H24">
+        <v>0.05781683154542624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03724007197949476</v>
+        <v>-0.03428338715283526</v>
       </c>
       <c r="C25">
-        <v>0.05119280475829532</v>
+        <v>0.05517266665810111</v>
       </c>
       <c r="D25">
-        <v>-0.06341917027036088</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06224646164943053</v>
+      </c>
+      <c r="E25">
+        <v>0.008954127247869578</v>
+      </c>
+      <c r="F25">
+        <v>0.003066232589640151</v>
+      </c>
+      <c r="G25">
+        <v>0.009876257748695468</v>
+      </c>
+      <c r="H25">
+        <v>0.02776556693199875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01464282193128272</v>
+        <v>-0.01741582857375241</v>
       </c>
       <c r="C26">
-        <v>0.01180990345029161</v>
+        <v>0.01767779733327328</v>
       </c>
       <c r="D26">
-        <v>-0.05781450336708273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06518457012991373</v>
+      </c>
+      <c r="E26">
+        <v>0.01851814118566332</v>
+      </c>
+      <c r="F26">
+        <v>-0.01210007379468142</v>
+      </c>
+      <c r="G26">
+        <v>0.02183521475991794</v>
+      </c>
+      <c r="H26">
+        <v>0.06131623990619392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1644645154338081</v>
+        <v>-0.2099000865723585</v>
       </c>
       <c r="C28">
-        <v>-0.2556404596140843</v>
+        <v>-0.2519794371369186</v>
       </c>
       <c r="D28">
-        <v>0.01484634911275863</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.003970761569989542</v>
+      </c>
+      <c r="E28">
+        <v>0.07477252105679182</v>
+      </c>
+      <c r="F28">
+        <v>-0.02449321409538949</v>
+      </c>
+      <c r="G28">
+        <v>-0.04619896428929703</v>
+      </c>
+      <c r="H28">
+        <v>-0.02809890812024471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.000202533726778095</v>
+        <v>-0.003772719096637221</v>
       </c>
       <c r="C29">
-        <v>0.02272089426719456</v>
+        <v>0.02261371389740417</v>
       </c>
       <c r="D29">
-        <v>-0.07232093147001585</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0906160714709882</v>
+      </c>
+      <c r="E29">
+        <v>0.02238843244850206</v>
+      </c>
+      <c r="F29">
+        <v>-0.02418699311432881</v>
+      </c>
+      <c r="G29">
+        <v>0.02667282245700013</v>
+      </c>
+      <c r="H29">
+        <v>0.1021293027599996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02728867387505913</v>
+        <v>-0.0369678348645728</v>
       </c>
       <c r="C30">
-        <v>0.04861397611208646</v>
+        <v>0.06123317534819667</v>
       </c>
       <c r="D30">
-        <v>-0.1572747422445032</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1730618494878529</v>
+      </c>
+      <c r="E30">
+        <v>0.02316275916944166</v>
+      </c>
+      <c r="F30">
+        <v>-0.01468786746044643</v>
+      </c>
+      <c r="G30">
+        <v>0.002967719638176952</v>
+      </c>
+      <c r="H30">
+        <v>0.07584438847499332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05971662716754533</v>
+        <v>-0.05240653773255171</v>
       </c>
       <c r="C31">
-        <v>0.06331916213850279</v>
+        <v>0.07585592436162139</v>
       </c>
       <c r="D31">
-        <v>-0.07018538270572511</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05516426632846812</v>
+      </c>
+      <c r="E31">
+        <v>0.02330083217122392</v>
+      </c>
+      <c r="F31">
+        <v>-0.03707330006190099</v>
+      </c>
+      <c r="G31">
+        <v>0.005560053014536361</v>
+      </c>
+      <c r="H31">
+        <v>0.01312395414589272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.008993972199953721</v>
+        <v>-0.01639095267958186</v>
       </c>
       <c r="C32">
-        <v>0.01055445084804943</v>
+        <v>0.01440455650841763</v>
       </c>
       <c r="D32">
-        <v>-0.0718521581901784</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1142428703234194</v>
+      </c>
+      <c r="E32">
+        <v>0.07895414857191776</v>
+      </c>
+      <c r="F32">
+        <v>-0.03057546606961423</v>
+      </c>
+      <c r="G32">
+        <v>0.01231794287687224</v>
+      </c>
+      <c r="H32">
+        <v>0.06820566312229549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02201787243557948</v>
+        <v>-0.0239629339500337</v>
       </c>
       <c r="C33">
-        <v>0.03678857681517235</v>
+        <v>0.04453102681897918</v>
       </c>
       <c r="D33">
-        <v>-0.135146263201979</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1337738090868902</v>
+      </c>
+      <c r="E33">
+        <v>0.03886321592407799</v>
+      </c>
+      <c r="F33">
+        <v>-0.01533677653504203</v>
+      </c>
+      <c r="G33">
+        <v>0.0253372597808995</v>
+      </c>
+      <c r="H33">
+        <v>0.06056653735902254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0311480029006791</v>
+        <v>-0.02667456425009708</v>
       </c>
       <c r="C34">
-        <v>0.06425186270738367</v>
+        <v>0.06255793820126071</v>
       </c>
       <c r="D34">
-        <v>-0.0666095498365981</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05516801147052593</v>
+      </c>
+      <c r="E34">
+        <v>-0.008580293565245466</v>
+      </c>
+      <c r="F34">
+        <v>0.01739094352039552</v>
+      </c>
+      <c r="G34">
+        <v>0.02031725099335579</v>
+      </c>
+      <c r="H34">
+        <v>0.03980822403836116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0007993325102684585</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009358179452337618</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.007122679684983987</v>
+      </c>
+      <c r="E35">
+        <v>-0.0005427238994742262</v>
+      </c>
+      <c r="F35">
+        <v>-0.0009592462954550861</v>
+      </c>
+      <c r="G35">
+        <v>0.002131123326363124</v>
+      </c>
+      <c r="H35">
+        <v>0.004352595177407718</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01773210565963824</v>
+        <v>-0.01893861145454353</v>
       </c>
       <c r="C36">
-        <v>0.006327747770034546</v>
+        <v>0.01512446133434996</v>
       </c>
       <c r="D36">
-        <v>-0.07677196838070875</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07729451728124993</v>
+      </c>
+      <c r="E36">
+        <v>0.02757731744168124</v>
+      </c>
+      <c r="F36">
+        <v>-0.007944329173986735</v>
+      </c>
+      <c r="G36">
+        <v>0.004345219324358968</v>
+      </c>
+      <c r="H36">
+        <v>0.05649720608773953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01987100660444525</v>
+        <v>-0.02101570982022535</v>
       </c>
       <c r="C38">
-        <v>0.01522168539861094</v>
+        <v>0.02016413845152791</v>
       </c>
       <c r="D38">
-        <v>-0.06355032682035856</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06686820723536778</v>
+      </c>
+      <c r="E38">
+        <v>0.03381551058648453</v>
+      </c>
+      <c r="F38">
+        <v>0.01437920249063875</v>
+      </c>
+      <c r="G38">
+        <v>0.04218903481987434</v>
+      </c>
+      <c r="H38">
+        <v>0.03201892005245752</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0341400511919918</v>
+        <v>-0.03296983864535991</v>
       </c>
       <c r="C39">
-        <v>0.05580804668384032</v>
+        <v>0.0692636572231492</v>
       </c>
       <c r="D39">
-        <v>-0.08539590403397188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1012134150440185</v>
+      </c>
+      <c r="E39">
+        <v>0.007864938684976962</v>
+      </c>
+      <c r="F39">
+        <v>0.03122597558387629</v>
+      </c>
+      <c r="G39">
+        <v>0.01339779175155134</v>
+      </c>
+      <c r="H39">
+        <v>0.09654805732245537</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01369718195067653</v>
+        <v>-0.01102124096549508</v>
       </c>
       <c r="C40">
-        <v>0.04334680981339703</v>
+        <v>0.03957863963194064</v>
       </c>
       <c r="D40">
-        <v>-0.0819713081619564</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08768675002791541</v>
+      </c>
+      <c r="E40">
+        <v>0.052115359858968</v>
+      </c>
+      <c r="F40">
+        <v>-0.0931474222384779</v>
+      </c>
+      <c r="G40">
+        <v>0.1417813259189953</v>
+      </c>
+      <c r="H40">
+        <v>0.1140035910067584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02458480741762711</v>
+        <v>-0.0234651187387581</v>
       </c>
       <c r="C41">
-        <v>0.002315664838378769</v>
+        <v>0.009426086433271691</v>
       </c>
       <c r="D41">
-        <v>-0.06560699306778124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05383950115108335</v>
+      </c>
+      <c r="E41">
+        <v>0.04890882830049401</v>
+      </c>
+      <c r="F41">
+        <v>-0.009086362016653263</v>
+      </c>
+      <c r="G41">
+        <v>0.03367279880136338</v>
+      </c>
+      <c r="H41">
+        <v>0.03321809820250807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02594509878344344</v>
+        <v>-0.02305925393283529</v>
       </c>
       <c r="C43">
-        <v>0.01225262491914247</v>
+        <v>0.01852368392291369</v>
       </c>
       <c r="D43">
-        <v>-0.1069858632464423</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08375276576870846</v>
+      </c>
+      <c r="E43">
+        <v>0.0248309441775199</v>
+      </c>
+      <c r="F43">
+        <v>-0.005148211160183774</v>
+      </c>
+      <c r="G43">
+        <v>0.035935433169478</v>
+      </c>
+      <c r="H43">
+        <v>0.04211255050049672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01361788526672843</v>
+        <v>-0.01669786980564088</v>
       </c>
       <c r="C44">
-        <v>0.04055151509319348</v>
+        <v>0.04190658396543943</v>
       </c>
       <c r="D44">
-        <v>-0.08521710717095596</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1071474064521607</v>
+      </c>
+      <c r="E44">
+        <v>0.05731101680700404</v>
+      </c>
+      <c r="F44">
+        <v>-0.01281395935972071</v>
+      </c>
+      <c r="G44">
+        <v>0.02812047063810309</v>
+      </c>
+      <c r="H44">
+        <v>0.06368059413486435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01197316286985005</v>
+        <v>-0.01253738995336988</v>
       </c>
       <c r="C46">
-        <v>0.02477872691720458</v>
+        <v>0.0297130758227747</v>
       </c>
       <c r="D46">
-        <v>-0.08261153747263375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08790798374697426</v>
+      </c>
+      <c r="E46">
+        <v>0.03439500453420757</v>
+      </c>
+      <c r="F46">
+        <v>0.000491946176001155</v>
+      </c>
+      <c r="G46">
+        <v>0.02191554650993539</v>
+      </c>
+      <c r="H46">
+        <v>0.08890696667521411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09127724690287241</v>
+        <v>-0.08040132638393171</v>
       </c>
       <c r="C47">
-        <v>0.07286930097342213</v>
+        <v>0.09222232154600338</v>
       </c>
       <c r="D47">
-        <v>-0.04476912513954833</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03554199418811052</v>
+      </c>
+      <c r="E47">
+        <v>0.0370117371716067</v>
+      </c>
+      <c r="F47">
+        <v>-0.02767072211906586</v>
+      </c>
+      <c r="G47">
+        <v>-0.0009926175118565065</v>
+      </c>
+      <c r="H47">
+        <v>-0.05921618666992422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01031254833841687</v>
+        <v>-0.01424971944178394</v>
       </c>
       <c r="C48">
-        <v>0.01649325562189016</v>
+        <v>0.02065355605610159</v>
       </c>
       <c r="D48">
-        <v>-0.06279185522920155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07150463883407938</v>
+      </c>
+      <c r="E48">
+        <v>0.05196424965623565</v>
+      </c>
+      <c r="F48">
+        <v>-0.009769873492577481</v>
+      </c>
+      <c r="G48">
+        <v>0.01018437046353247</v>
+      </c>
+      <c r="H48">
+        <v>0.06178261011593826</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.05541826947913442</v>
+        <v>-0.0495250122641689</v>
       </c>
       <c r="C50">
-        <v>0.05516788879397742</v>
+        <v>0.06744960102934949</v>
       </c>
       <c r="D50">
-        <v>-0.06015012837478505</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05399177142869693</v>
+      </c>
+      <c r="E50">
+        <v>0.02884931488631625</v>
+      </c>
+      <c r="F50">
+        <v>-0.038285910261595</v>
+      </c>
+      <c r="G50">
+        <v>0.03815243597571518</v>
+      </c>
+      <c r="H50">
+        <v>0.004954632628099394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.008813733279995822</v>
+        <v>-0.01090515928023269</v>
       </c>
       <c r="C51">
-        <v>0.01496855147512028</v>
+        <v>0.01935978380432867</v>
       </c>
       <c r="D51">
-        <v>-0.07752014014540312</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08935327849687219</v>
+      </c>
+      <c r="E51">
+        <v>0.01093726022099311</v>
+      </c>
+      <c r="F51">
+        <v>0.002823618833747805</v>
+      </c>
+      <c r="G51">
+        <v>0.02006842843713305</v>
+      </c>
+      <c r="H51">
+        <v>0.0899864783630622</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08900763280121057</v>
+        <v>-0.08677219849119108</v>
       </c>
       <c r="C53">
-        <v>0.0913646676316151</v>
+        <v>0.1020944034599084</v>
       </c>
       <c r="D53">
-        <v>-0.005058885980884158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01768131149455757</v>
+      </c>
+      <c r="E53">
+        <v>0.1075715132005621</v>
+      </c>
+      <c r="F53">
+        <v>-0.07592893530847608</v>
+      </c>
+      <c r="G53">
+        <v>-0.0569795637355668</v>
+      </c>
+      <c r="H53">
+        <v>-0.004741341982102705</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02481150321104566</v>
+        <v>-0.0250207249548816</v>
       </c>
       <c r="C54">
-        <v>0.03060370319268022</v>
+        <v>0.03437430001220231</v>
       </c>
       <c r="D54">
-        <v>-0.09382448595291229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08777232731649018</v>
+      </c>
+      <c r="E54">
+        <v>0.03494053947652134</v>
+      </c>
+      <c r="F54">
+        <v>0.0052398377121318</v>
+      </c>
+      <c r="G54">
+        <v>0.05458562488617774</v>
+      </c>
+      <c r="H54">
+        <v>0.07618268137696775</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08950058666761532</v>
+        <v>-0.08406331336249163</v>
       </c>
       <c r="C55">
-        <v>0.06886028021744721</v>
+        <v>0.08077928349030696</v>
       </c>
       <c r="D55">
-        <v>0.01159701937964161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005651593711956648</v>
+      </c>
+      <c r="E55">
+        <v>0.05297697482757868</v>
+      </c>
+      <c r="F55">
+        <v>-0.05632827756242349</v>
+      </c>
+      <c r="G55">
+        <v>-0.03000739349837439</v>
+      </c>
+      <c r="H55">
+        <v>-0.006954980169970748</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.13914737521047</v>
+        <v>-0.1286781094903265</v>
       </c>
       <c r="C56">
-        <v>0.1003487027666113</v>
+        <v>0.1268436933527426</v>
       </c>
       <c r="D56">
-        <v>0.003498319298317693</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.007153569922939645</v>
+      </c>
+      <c r="E56">
+        <v>0.05759009185798632</v>
+      </c>
+      <c r="F56">
+        <v>-0.05560487667232145</v>
+      </c>
+      <c r="G56">
+        <v>-0.01368420029387859</v>
+      </c>
+      <c r="H56">
+        <v>-0.05107907406814192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.001330288216720933</v>
+        <v>-0.01409632676213688</v>
       </c>
       <c r="C58">
-        <v>0.005380423974858482</v>
+        <v>0.0301757886988908</v>
       </c>
       <c r="D58">
-        <v>-0.2829411017143635</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3260557351189487</v>
+      </c>
+      <c r="E58">
+        <v>0.1326906709718413</v>
+      </c>
+      <c r="F58">
+        <v>-0.1193739155048607</v>
+      </c>
+      <c r="G58">
+        <v>0.06226958813647148</v>
+      </c>
+      <c r="H58">
+        <v>-0.05587373574027864</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1482396246432495</v>
+        <v>-0.1814061166783058</v>
       </c>
       <c r="C59">
-        <v>-0.1790882169195963</v>
+        <v>-0.1668490775938624</v>
       </c>
       <c r="D59">
-        <v>-0.03602682074653092</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05230838568616934</v>
+      </c>
+      <c r="E59">
+        <v>0.02727379279010084</v>
+      </c>
+      <c r="F59">
+        <v>0.02957473116781348</v>
+      </c>
+      <c r="G59">
+        <v>-0.007039970251175458</v>
+      </c>
+      <c r="H59">
+        <v>-0.02235896992434563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2416631598457126</v>
+        <v>-0.225699743122634</v>
       </c>
       <c r="C60">
-        <v>0.08003288926476448</v>
+        <v>0.1071042724506905</v>
       </c>
       <c r="D60">
-        <v>-0.2130167305184378</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1281041273855545</v>
+      </c>
+      <c r="E60">
+        <v>-0.3447709153809493</v>
+      </c>
+      <c r="F60">
+        <v>0.03911960162738269</v>
+      </c>
+      <c r="G60">
+        <v>-0.08250685876392728</v>
+      </c>
+      <c r="H60">
+        <v>-0.1171617550915714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04182199780528895</v>
+        <v>-0.03912125648945599</v>
       </c>
       <c r="C61">
-        <v>0.0534607217269048</v>
+        <v>0.06295821767583247</v>
       </c>
       <c r="D61">
-        <v>-0.1015247643293583</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09383359144446077</v>
+      </c>
+      <c r="E61">
+        <v>0.0004667596931079941</v>
+      </c>
+      <c r="F61">
+        <v>0.02235882794486676</v>
+      </c>
+      <c r="G61">
+        <v>0.01140975488475583</v>
+      </c>
+      <c r="H61">
+        <v>0.05536154610706005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0150589182323937</v>
+        <v>-0.01588073703819429</v>
       </c>
       <c r="C63">
-        <v>0.02079380854441701</v>
+        <v>0.02953103117622444</v>
       </c>
       <c r="D63">
-        <v>-0.07142294837411776</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07291702697501429</v>
+      </c>
+      <c r="E63">
+        <v>0.01352836941204489</v>
+      </c>
+      <c r="F63">
+        <v>-0.005958244185255445</v>
+      </c>
+      <c r="G63">
+        <v>0.00261567183259391</v>
+      </c>
+      <c r="H63">
+        <v>0.05462651921747122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05626789920949596</v>
+        <v>-0.05041399149600062</v>
       </c>
       <c r="C64">
-        <v>0.07397072307680957</v>
+        <v>0.08180302404344029</v>
       </c>
       <c r="D64">
-        <v>-0.05229047184780027</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05536338415774172</v>
+      </c>
+      <c r="E64">
+        <v>0.02344723398777842</v>
+      </c>
+      <c r="F64">
+        <v>0.01339303537422992</v>
+      </c>
+      <c r="G64">
+        <v>-0.04842499777020007</v>
+      </c>
+      <c r="H64">
+        <v>0.04808843890706427</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04123808417179878</v>
+        <v>-0.04063820569924837</v>
       </c>
       <c r="C65">
-        <v>0.0186710437210437</v>
+        <v>0.02770952857064104</v>
       </c>
       <c r="D65">
-        <v>-0.1249961497673659</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1199614682714058</v>
+      </c>
+      <c r="E65">
+        <v>-0.003507460663259277</v>
+      </c>
+      <c r="F65">
+        <v>-0.0107653892899381</v>
+      </c>
+      <c r="G65">
+        <v>0.01271118276076888</v>
+      </c>
+      <c r="H65">
+        <v>0.008635027130348026</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.0388877568541649</v>
+        <v>-0.0372717700488706</v>
       </c>
       <c r="C66">
-        <v>0.06141346924071078</v>
+        <v>0.07815251029746254</v>
       </c>
       <c r="D66">
-        <v>-0.1066513841830377</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1279494124737426</v>
+      </c>
+      <c r="E66">
+        <v>0.0103487964079056</v>
+      </c>
+      <c r="F66">
+        <v>0.01653981635932174</v>
+      </c>
+      <c r="G66">
+        <v>0.0224502480205035</v>
+      </c>
+      <c r="H66">
+        <v>0.05979115517074211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04070860636768255</v>
+        <v>-0.03871003552026103</v>
       </c>
       <c r="C67">
-        <v>0.0205870720863289</v>
+        <v>0.02679828132907159</v>
       </c>
       <c r="D67">
-        <v>-0.03451448679982728</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02807439264624283</v>
+      </c>
+      <c r="E67">
+        <v>0.01197697958780294</v>
+      </c>
+      <c r="F67">
+        <v>0.01866776469973213</v>
+      </c>
+      <c r="G67">
+        <v>0.03583458933214992</v>
+      </c>
+      <c r="H67">
+        <v>0.02947489672095371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1741911737012327</v>
+        <v>-0.2005285486517406</v>
       </c>
       <c r="C68">
-        <v>-0.226102007658614</v>
+        <v>-0.1960597270647862</v>
       </c>
       <c r="D68">
-        <v>-0.01185414207652031</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02396442374159843</v>
+      </c>
+      <c r="E68">
+        <v>0.03076037066356958</v>
+      </c>
+      <c r="F68">
+        <v>-0.03169879181105041</v>
+      </c>
+      <c r="G68">
+        <v>0.003307248793276778</v>
+      </c>
+      <c r="H68">
+        <v>0.01240787777838165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08213069974853783</v>
+        <v>-0.07157142876027313</v>
       </c>
       <c r="C69">
-        <v>0.08843732909510332</v>
+        <v>0.09934571939361245</v>
       </c>
       <c r="D69">
-        <v>-0.06664211377123039</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04847512408298648</v>
+      </c>
+      <c r="E69">
+        <v>0.02137904534317767</v>
+      </c>
+      <c r="F69">
+        <v>-0.009159517491861946</v>
+      </c>
+      <c r="G69">
+        <v>-0.00487392364341028</v>
+      </c>
+      <c r="H69">
+        <v>-0.02228961764266343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1502184441335706</v>
+        <v>-0.1858752337144749</v>
       </c>
       <c r="C71">
-        <v>-0.2154291514555379</v>
+        <v>-0.2037634179873878</v>
       </c>
       <c r="D71">
-        <v>-0.02648925482182774</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03834744895214305</v>
+      </c>
+      <c r="E71">
+        <v>0.05106574609553678</v>
+      </c>
+      <c r="F71">
+        <v>-0.06110947150824438</v>
+      </c>
+      <c r="G71">
+        <v>0.01888153206677635</v>
+      </c>
+      <c r="H71">
+        <v>-0.01501368476399817</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1047681681817287</v>
+        <v>-0.09873910493609309</v>
       </c>
       <c r="C72">
-        <v>0.05422745784753313</v>
+        <v>0.07860231201857154</v>
       </c>
       <c r="D72">
-        <v>-0.08755797635612143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09499368631508592</v>
+      </c>
+      <c r="E72">
+        <v>-0.04083429901243028</v>
+      </c>
+      <c r="F72">
+        <v>-0.02890299397643947</v>
+      </c>
+      <c r="G72">
+        <v>-0.0229364542566758</v>
+      </c>
+      <c r="H72">
+        <v>0.05518552124961271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2552460763793495</v>
+        <v>-0.2358676416788016</v>
       </c>
       <c r="C73">
-        <v>0.04948562608650113</v>
+        <v>0.09773031599948663</v>
       </c>
       <c r="D73">
-        <v>-0.3196726151565265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1689177475711246</v>
+      </c>
+      <c r="E73">
+        <v>-0.6507126338821208</v>
+      </c>
+      <c r="F73">
+        <v>0.1153291473023092</v>
+      </c>
+      <c r="G73">
+        <v>-0.1290694398760578</v>
+      </c>
+      <c r="H73">
+        <v>-0.1208866751783074</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1056462811352613</v>
+        <v>-0.09503614283132947</v>
       </c>
       <c r="C74">
-        <v>0.07675435247984046</v>
+        <v>0.09273538796212979</v>
       </c>
       <c r="D74">
-        <v>0.004977556977480977</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01288571419236681</v>
+      </c>
+      <c r="E74">
+        <v>0.04964494640259112</v>
+      </c>
+      <c r="F74">
+        <v>-0.07005724352467918</v>
+      </c>
+      <c r="G74">
+        <v>-0.06235844093797805</v>
+      </c>
+      <c r="H74">
+        <v>-0.03323397996840419</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2496593646765875</v>
+        <v>-0.2253928128213107</v>
       </c>
       <c r="C75">
-        <v>0.1310704347725838</v>
+        <v>0.1659851725254958</v>
       </c>
       <c r="D75">
-        <v>0.07513061342217556</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09580850875005256</v>
+      </c>
+      <c r="E75">
+        <v>0.1123317572821653</v>
+      </c>
+      <c r="F75">
+        <v>-0.01963031764293135</v>
+      </c>
+      <c r="G75">
+        <v>-0.04745745609564591</v>
+      </c>
+      <c r="H75">
+        <v>-0.1043100016668493</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1357047847552998</v>
+        <v>-0.1241118753864227</v>
       </c>
       <c r="C76">
-        <v>0.09602332872060766</v>
+        <v>0.1130287416397351</v>
       </c>
       <c r="D76">
-        <v>0.004762123214770003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.00524648358265995</v>
+      </c>
+      <c r="E76">
+        <v>0.112507371192575</v>
+      </c>
+      <c r="F76">
+        <v>-0.0355846899097019</v>
+      </c>
+      <c r="G76">
+        <v>-0.02706129123394348</v>
+      </c>
+      <c r="H76">
+        <v>0.002995757746306458</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.04813989032663155</v>
+        <v>-0.0576954782022412</v>
       </c>
       <c r="C77">
-        <v>0.06539140160901319</v>
+        <v>0.06877630160186532</v>
       </c>
       <c r="D77">
-        <v>-0.04083407331528274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1277879899526173</v>
+      </c>
+      <c r="E77">
+        <v>0.2935185976093316</v>
+      </c>
+      <c r="F77">
+        <v>0.2733255854720477</v>
+      </c>
+      <c r="G77">
+        <v>0.2383415206996741</v>
+      </c>
+      <c r="H77">
+        <v>-0.7548094858940564</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03633271710574124</v>
+        <v>-0.04333353991935154</v>
       </c>
       <c r="C78">
-        <v>0.05659841267736085</v>
+        <v>0.06934853295994234</v>
       </c>
       <c r="D78">
-        <v>-0.1269898960996354</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1389691036447662</v>
+      </c>
+      <c r="E78">
+        <v>0.02080102542010876</v>
+      </c>
+      <c r="F78">
+        <v>-0.02730117226662195</v>
+      </c>
+      <c r="G78">
+        <v>0.01454375820454829</v>
+      </c>
+      <c r="H78">
+        <v>-9.611750719383971e-06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.0342601105692707</v>
+        <v>-0.04751542364154303</v>
       </c>
       <c r="C79">
-        <v>0.08511303324848862</v>
+        <v>0.09839011499413933</v>
       </c>
       <c r="D79">
-        <v>0.09565054141756044</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02569699967626876</v>
+      </c>
+      <c r="E79">
+        <v>0.2322900182912157</v>
+      </c>
+      <c r="F79">
+        <v>-0.3005447207100855</v>
+      </c>
+      <c r="G79">
+        <v>-0.759709919901817</v>
+      </c>
+      <c r="H79">
+        <v>-0.08994347043225802</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.02476573136361103</v>
+        <v>-0.0242818928348967</v>
       </c>
       <c r="C80">
-        <v>0.04432954518954614</v>
+        <v>0.0474265844655683</v>
       </c>
       <c r="D80">
-        <v>-0.01782677509279047</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02024297570198211</v>
+      </c>
+      <c r="E80">
+        <v>0.020386086724606</v>
+      </c>
+      <c r="F80">
+        <v>0.003252517386191984</v>
+      </c>
+      <c r="G80">
+        <v>0.02424380084467294</v>
+      </c>
+      <c r="H80">
+        <v>0.0541910061485855</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1392057660284303</v>
+        <v>-0.1217821367766259</v>
       </c>
       <c r="C81">
-        <v>0.1025452603947113</v>
+        <v>0.1218493377928964</v>
       </c>
       <c r="D81">
-        <v>0.06713099632061736</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07455185183562732</v>
+      </c>
+      <c r="E81">
+        <v>0.109965630764913</v>
+      </c>
+      <c r="F81">
+        <v>-0.05074133752698443</v>
+      </c>
+      <c r="G81">
+        <v>-0.02393002649859107</v>
+      </c>
+      <c r="H81">
+        <v>-0.02915391709206398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.3088533970714263</v>
+        <v>-0.2560655216769311</v>
       </c>
       <c r="C82">
-        <v>0.2749287327492826</v>
+        <v>0.2734216717035874</v>
       </c>
       <c r="D82">
-        <v>0.2429075156777434</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.243732356655314</v>
+      </c>
+      <c r="E82">
+        <v>-0.01868332897787833</v>
+      </c>
+      <c r="F82">
+        <v>-0.01853068827467221</v>
+      </c>
+      <c r="G82">
+        <v>0.1681163733631147</v>
+      </c>
+      <c r="H82">
+        <v>-0.07241191018730103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02689890312684972</v>
+        <v>-0.02141134978766466</v>
       </c>
       <c r="C83">
-        <v>0.0536782961722593</v>
+        <v>0.05010268936814086</v>
       </c>
       <c r="D83">
-        <v>-0.0443779570486786</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05141369821815398</v>
+      </c>
+      <c r="E83">
+        <v>0.02636907831689232</v>
+      </c>
+      <c r="F83">
+        <v>0.06359657794385018</v>
+      </c>
+      <c r="G83">
+        <v>0.04095844375142084</v>
+      </c>
+      <c r="H83">
+        <v>-0.08611518092243196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0009218626940159349</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004865800957214231</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01858233156678353</v>
+      </c>
+      <c r="E84">
+        <v>0.01940109720941251</v>
+      </c>
+      <c r="F84">
+        <v>-0.0136480169949493</v>
+      </c>
+      <c r="G84">
+        <v>0.008165247139669513</v>
+      </c>
+      <c r="H84">
+        <v>0.01972966396693382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1733724320439239</v>
+        <v>-0.1552438493937541</v>
       </c>
       <c r="C85">
-        <v>0.1096769742616207</v>
+        <v>0.138177018784987</v>
       </c>
       <c r="D85">
-        <v>0.03249793678170367</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.05820807982506938</v>
+      </c>
+      <c r="E85">
+        <v>0.04615467340369745</v>
+      </c>
+      <c r="F85">
+        <v>-0.05438332028097125</v>
+      </c>
+      <c r="G85">
+        <v>-0.1040291922763163</v>
+      </c>
+      <c r="H85">
+        <v>0.006653254849247726</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01364365121137985</v>
+        <v>-0.0190238764595005</v>
       </c>
       <c r="C86">
-        <v>0.04080539326388636</v>
+        <v>0.03061863903301842</v>
       </c>
       <c r="D86">
-        <v>-0.1167939015722709</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1158967031660195</v>
+      </c>
+      <c r="E86">
+        <v>0.02879063715794876</v>
+      </c>
+      <c r="F86">
+        <v>0.01654114174171072</v>
+      </c>
+      <c r="G86">
+        <v>0.05972608793775991</v>
+      </c>
+      <c r="H86">
+        <v>-0.03535684167003063</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02510473592761349</v>
+        <v>-0.0353744027568459</v>
       </c>
       <c r="C87">
-        <v>0.01033876289262144</v>
+        <v>0.02552993691175607</v>
       </c>
       <c r="D87">
-        <v>-0.1047553946080955</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1425222170950357</v>
+      </c>
+      <c r="E87">
+        <v>0.08342813171845984</v>
+      </c>
+      <c r="F87">
+        <v>-0.01288805375954566</v>
+      </c>
+      <c r="G87">
+        <v>0.03687763088923805</v>
+      </c>
+      <c r="H87">
+        <v>0.04623402195087712</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07375207790275018</v>
+        <v>-0.06645450790523805</v>
       </c>
       <c r="C88">
-        <v>0.04079177780264118</v>
+        <v>0.0549719412468925</v>
       </c>
       <c r="D88">
-        <v>-0.04452396410712538</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02463436444467694</v>
+      </c>
+      <c r="E88">
+        <v>-0.0007308002212232707</v>
+      </c>
+      <c r="F88">
+        <v>-0.02589299327489715</v>
+      </c>
+      <c r="G88">
+        <v>-0.0007578588779203181</v>
+      </c>
+      <c r="H88">
+        <v>0.03228771045125028</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.240247723693506</v>
+        <v>-0.2882655254087522</v>
       </c>
       <c r="C89">
-        <v>-0.3965285581663315</v>
+        <v>-0.3476399088924965</v>
       </c>
       <c r="D89">
-        <v>0.01788311351682412</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.005499753119471117</v>
+      </c>
+      <c r="E89">
+        <v>0.06291448308635578</v>
+      </c>
+      <c r="F89">
+        <v>0.009228220540680713</v>
+      </c>
+      <c r="G89">
+        <v>-0.005273518962093769</v>
+      </c>
+      <c r="H89">
+        <v>0.1150496363098149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2149790458647673</v>
+        <v>-0.2439155199591201</v>
       </c>
       <c r="C90">
-        <v>-0.298387981273511</v>
+        <v>-0.2466037885403864</v>
       </c>
       <c r="D90">
-        <v>0.0006129075242572262</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02254755541414874</v>
+      </c>
+      <c r="E90">
+        <v>0.04554034161568953</v>
+      </c>
+      <c r="F90">
+        <v>0.007949636280790285</v>
+      </c>
+      <c r="G90">
+        <v>0.06115689590517195</v>
+      </c>
+      <c r="H90">
+        <v>0.01562913737329607</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.176065111834344</v>
+        <v>-0.1541443589455521</v>
       </c>
       <c r="C91">
-        <v>0.1473214892127416</v>
+        <v>0.1576894722190897</v>
       </c>
       <c r="D91">
-        <v>0.08642291328502927</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08472919902079301</v>
+      </c>
+      <c r="E91">
+        <v>0.1101191883556069</v>
+      </c>
+      <c r="F91">
+        <v>-0.05734904187967855</v>
+      </c>
+      <c r="G91">
+        <v>-0.08671021262424913</v>
+      </c>
+      <c r="H91">
+        <v>-0.07262998511429442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1869190886264128</v>
+        <v>-0.2299087138966615</v>
       </c>
       <c r="C92">
-        <v>-0.278915717772971</v>
+        <v>-0.2677844464979769</v>
       </c>
       <c r="D92">
-        <v>-0.0150365338137513</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03176642926749983</v>
+      </c>
+      <c r="E92">
+        <v>0.07924336485795751</v>
+      </c>
+      <c r="F92">
+        <v>0.007812940162308516</v>
+      </c>
+      <c r="G92">
+        <v>0.02477855625643467</v>
+      </c>
+      <c r="H92">
+        <v>-0.008026583151922811</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2355099913867361</v>
+        <v>-0.2652153377212099</v>
       </c>
       <c r="C93">
-        <v>-0.2992148329485623</v>
+        <v>-0.2565023953635011</v>
       </c>
       <c r="D93">
-        <v>-0.0059337837232304</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004535682793449287</v>
+      </c>
+      <c r="E93">
+        <v>-0.005286641022632422</v>
+      </c>
+      <c r="F93">
+        <v>-0.01931199304674044</v>
+      </c>
+      <c r="G93">
+        <v>-0.01103757425343691</v>
+      </c>
+      <c r="H93">
+        <v>0.001748082406739226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3764848665098242</v>
+        <v>-0.3298716488680388</v>
       </c>
       <c r="C94">
-        <v>0.2172929749532845</v>
+        <v>0.2618094240544544</v>
       </c>
       <c r="D94">
-        <v>0.4367084135560876</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4364998009084837</v>
+      </c>
+      <c r="E94">
+        <v>0.05286459414260851</v>
+      </c>
+      <c r="F94">
+        <v>0.02954342755731699</v>
+      </c>
+      <c r="G94">
+        <v>0.2829031609358886</v>
+      </c>
+      <c r="H94">
+        <v>0.3039744654416526</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06998829826605309</v>
+        <v>-0.06433959497810032</v>
       </c>
       <c r="C95">
-        <v>0.05851740641852522</v>
+        <v>0.065815012425693</v>
       </c>
       <c r="D95">
-        <v>-0.05940364866939459</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06533183863417723</v>
+      </c>
+      <c r="E95">
+        <v>0.1963309145485631</v>
+      </c>
+      <c r="F95">
+        <v>0.8413238515642785</v>
+      </c>
+      <c r="G95">
+        <v>-0.3044787416877219</v>
+      </c>
+      <c r="H95">
+        <v>0.2408675108778222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.167755134932974</v>
+        <v>-0.162200179261985</v>
       </c>
       <c r="C98">
-        <v>0.04251739729966839</v>
+        <v>0.07448646024441204</v>
       </c>
       <c r="D98">
-        <v>-0.1791093826524624</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1268473505286981</v>
+      </c>
+      <c r="E98">
+        <v>-0.3041511528157439</v>
+      </c>
+      <c r="F98">
+        <v>0.003326873627492449</v>
+      </c>
+      <c r="G98">
+        <v>-0.06558839226133556</v>
+      </c>
+      <c r="H98">
+        <v>-0.07248983420690946</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0002359104852882622</v>
+        <v>-0.003857609963701398</v>
       </c>
       <c r="C101">
-        <v>0.02209077958399244</v>
+        <v>0.021863787629496</v>
       </c>
       <c r="D101">
-        <v>-0.07243843244967177</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.09046482276949588</v>
+      </c>
+      <c r="E101">
+        <v>0.02309664103859693</v>
+      </c>
+      <c r="F101">
+        <v>-0.02360504524293178</v>
+      </c>
+      <c r="G101">
+        <v>0.02625493036620921</v>
+      </c>
+      <c r="H101">
+        <v>0.1015627013678747</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1243489362518824</v>
+        <v>-0.1043404411444762</v>
       </c>
       <c r="C102">
-        <v>0.1167062907131004</v>
+        <v>0.1205650926968218</v>
       </c>
       <c r="D102">
-        <v>0.05042789842218517</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06211208616684425</v>
+      </c>
+      <c r="E102">
+        <v>0.03220160563720528</v>
+      </c>
+      <c r="F102">
+        <v>0.01199039124879714</v>
+      </c>
+      <c r="G102">
+        <v>-5.627873583983867e-05</v>
+      </c>
+      <c r="H102">
+        <v>-0.04710691475925322</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
